--- a/app/tools/EVALUACIONES 2024 (1).xlsx
+++ b/app/tools/EVALUACIONES 2024 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\evaluaciones\API\app\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praccontabilidad\Desktop\evaluaciones\api_evaluaciones\app\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF93FA-965C-4441-8747-EBB84E0C9F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Aux Gestion Humana" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
     <sheet name="Auxiliarde guarnecida" sheetId="32" r:id="rId30"/>
     <sheet name="Hoja1" sheetId="33" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,12 +63,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Luis Fernando Martinez</author>
   </authors>
   <commentList>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4809,7 +4808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5269,6 +5268,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5317,6 +5320,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5335,15 +5347,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5357,16 +5360,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5378,13 +5378,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5413,10 +5416,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5730,7 +5729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -5749,52 +5748,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -6102,20 +6101,20 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="1:7" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:7" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
@@ -6142,12 +6141,12 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
@@ -6174,12 +6173,12 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="2:5" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -6206,12 +6205,12 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" ht="118.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="2:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
@@ -6238,12 +6237,12 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
     </row>
     <row r="44" spans="2:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
@@ -6270,12 +6269,12 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="2:5" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
@@ -6302,12 +6301,12 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
@@ -6356,7 +6355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -6373,12 +6372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -6619,20 +6618,20 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
     </row>
     <row r="32" spans="1:4" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -6665,12 +6664,12 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="1:4" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -6707,12 +6706,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
     </row>
     <row r="41" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6749,12 +6748,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="45" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -6793,26 +6792,26 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="88">
-        <v>5</v>
-      </c>
-      <c r="C48" s="88">
-        <v>3</v>
-      </c>
-      <c r="D48" s="89">
+      <c r="B48" s="90">
+        <v>5</v>
+      </c>
+      <c r="C48" s="90">
+        <v>3</v>
+      </c>
+      <c r="D48" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
     </row>
     <row r="50" spans="1:4" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
@@ -6849,12 +6848,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="86"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="81"/>
     </row>
     <row r="54" spans="1:4" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -6891,12 +6890,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="86"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
     </row>
     <row r="58" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
@@ -6933,12 +6932,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
     </row>
     <row r="62" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -6971,12 +6970,12 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="87"/>
     </row>
     <row r="66" spans="1:4" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -7013,12 +7012,12 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="80" t="s">
+      <c r="A69" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="87"/>
     </row>
     <row r="70" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -7055,12 +7054,12 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="87"/>
     </row>
     <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
@@ -7093,12 +7092,12 @@
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="87"/>
     </row>
     <row r="78" spans="1:4" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -7153,14 +7152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,12 +7171,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -7442,20 +7441,20 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
     </row>
     <row r="36" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -7488,12 +7487,12 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
     </row>
     <row r="40" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -7530,12 +7529,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -7572,12 +7571,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -7616,26 +7615,26 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="93">
-        <v>5</v>
-      </c>
-      <c r="C51" s="93">
-        <v>3</v>
-      </c>
-      <c r="D51" s="93">
+      <c r="B51" s="95">
+        <v>5</v>
+      </c>
+      <c r="C51" s="95">
+        <v>3</v>
+      </c>
+      <c r="D51" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
     </row>
     <row r="53" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -7672,12 +7671,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
     </row>
     <row r="57" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -7714,12 +7713,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
     </row>
     <row r="61" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -7756,12 +7755,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
@@ -7794,12 +7793,12 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
     </row>
     <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -7836,12 +7835,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
     </row>
     <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
@@ -7874,12 +7873,12 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
     </row>
     <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
@@ -7933,7 +7932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -7952,12 +7951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -8126,20 +8125,20 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="23" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
     </row>
     <row r="24" spans="1:4" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -8172,12 +8171,12 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
     </row>
     <row r="28" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -8214,12 +8213,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -8256,12 +8255,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
     </row>
     <row r="36" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -8300,26 +8299,26 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="93">
-        <v>5</v>
-      </c>
-      <c r="C39" s="93">
-        <v>3</v>
-      </c>
-      <c r="D39" s="93">
+      <c r="B39" s="95">
+        <v>5</v>
+      </c>
+      <c r="C39" s="95">
+        <v>3</v>
+      </c>
+      <c r="D39" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
     </row>
     <row r="41" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -8356,12 +8355,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
     </row>
     <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -8398,12 +8397,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -8436,12 +8435,12 @@
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
     </row>
     <row r="53" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -8478,12 +8477,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -8516,12 +8515,12 @@
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
     </row>
     <row r="61" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
@@ -8555,12 +8554,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
@@ -8568,13 +8561,19 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -8593,12 +8592,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -8815,20 +8814,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
     </row>
     <row r="29" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
     </row>
     <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -8861,12 +8860,12 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
     </row>
     <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -8903,12 +8902,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
     </row>
     <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -8945,12 +8944,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -8989,26 +8988,26 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="93">
-        <v>5</v>
-      </c>
-      <c r="C45" s="93">
-        <v>3</v>
-      </c>
-      <c r="D45" s="93">
+      <c r="B45" s="95">
+        <v>5</v>
+      </c>
+      <c r="C45" s="95">
+        <v>3</v>
+      </c>
+      <c r="D45" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
     </row>
     <row r="47" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -9045,12 +9044,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
@@ -9087,12 +9086,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
     </row>
     <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -9125,12 +9124,12 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
     </row>
     <row r="59" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -9163,12 +9162,12 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87"/>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -9201,12 +9200,12 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
@@ -9240,12 +9239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
@@ -9253,13 +9246,19 @@
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -9275,12 +9274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -9553,20 +9552,20 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
     </row>
     <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -9599,12 +9598,12 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
     </row>
     <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -9641,12 +9640,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
     </row>
     <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -9683,12 +9682,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
     </row>
     <row r="49" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -9727,26 +9726,26 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="93">
-        <v>5</v>
-      </c>
-      <c r="C52" s="93">
-        <v>3</v>
-      </c>
-      <c r="D52" s="93">
+      <c r="B52" s="95">
+        <v>5</v>
+      </c>
+      <c r="C52" s="95">
+        <v>3</v>
+      </c>
+      <c r="D52" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
     </row>
     <row r="54" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -9783,12 +9782,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
     </row>
     <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
@@ -9825,12 +9824,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
     </row>
     <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -9863,12 +9862,12 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="80" t="s">
+      <c r="A65" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="87"/>
     </row>
     <row r="66" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -9901,12 +9900,12 @@
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
     </row>
     <row r="70" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -9940,25 +9939,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
@@ -9971,12 +9970,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10105,20 +10104,20 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
     </row>
     <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -10151,12 +10150,12 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
     </row>
     <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -10193,12 +10192,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -10235,12 +10234,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -10279,26 +10278,26 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="93">
-        <v>5</v>
-      </c>
-      <c r="C34" s="93">
-        <v>3</v>
-      </c>
-      <c r="D34" s="93">
+      <c r="B34" s="95">
+        <v>5</v>
+      </c>
+      <c r="C34" s="95">
+        <v>3</v>
+      </c>
+      <c r="D34" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
     </row>
     <row r="36" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -10335,12 +10334,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
     </row>
     <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -10377,12 +10376,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -10415,12 +10414,12 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
     </row>
     <row r="48" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -10453,12 +10452,12 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10491,12 +10490,12 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
     </row>
     <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -10530,12 +10529,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
@@ -10543,20 +10536,26 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:D78"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10568,12 +10567,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10854,20 +10853,20 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
     </row>
     <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -10900,12 +10899,12 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -10942,12 +10941,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
     </row>
     <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -10984,12 +10983,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
     </row>
     <row r="50" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -11028,26 +11027,26 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="93">
-        <v>5</v>
-      </c>
-      <c r="C53" s="93">
-        <v>3</v>
-      </c>
-      <c r="D53" s="93">
+      <c r="B53" s="95">
+        <v>5</v>
+      </c>
+      <c r="C53" s="95">
+        <v>3</v>
+      </c>
+      <c r="D53" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
     </row>
     <row r="55" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -11084,12 +11083,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
     </row>
     <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
@@ -11126,12 +11125,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -11164,12 +11163,12 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="87"/>
     </row>
     <row r="67" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
@@ -11202,12 +11201,12 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="80" t="s">
+      <c r="A70" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="87"/>
     </row>
     <row r="71" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -11240,12 +11239,12 @@
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
     </row>
     <row r="75" spans="1:4" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
@@ -11278,12 +11277,12 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
     </row>
     <row r="79" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
@@ -11317,12 +11316,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A53:D53"/>
@@ -11331,20 +11324,26 @@
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11356,12 +11355,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -11586,20 +11585,20 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
     </row>
     <row r="30" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -11632,12 +11631,12 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
     </row>
     <row r="35" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -11674,12 +11673,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
     </row>
     <row r="39" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -11716,12 +11715,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
     </row>
     <row r="43" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -11760,26 +11759,26 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="93">
-        <v>5</v>
-      </c>
-      <c r="C46" s="93">
-        <v>3</v>
-      </c>
-      <c r="D46" s="93">
+      <c r="B46" s="95">
+        <v>5</v>
+      </c>
+      <c r="C46" s="95">
+        <v>3</v>
+      </c>
+      <c r="D46" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -11816,12 +11815,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
     </row>
     <row r="52" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -11858,12 +11857,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
     </row>
     <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -11896,12 +11895,12 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
     </row>
     <row r="60" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -11934,12 +11933,12 @@
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="87"/>
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
@@ -11972,12 +11971,12 @@
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
     </row>
     <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
@@ -12010,12 +12009,12 @@
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
     </row>
     <row r="72" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -12048,12 +12047,12 @@
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
     </row>
     <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
@@ -12090,12 +12089,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="87"/>
     </row>
     <row r="80" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
@@ -12133,12 +12132,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A75:D75"/>
@@ -12149,20 +12142,26 @@
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12174,12 +12173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -12404,20 +12403,20 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
     </row>
     <row r="30" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -12450,12 +12449,12 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
     </row>
     <row r="35" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -12492,12 +12491,12 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
     </row>
     <row r="39" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -12534,12 +12533,12 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
     </row>
     <row r="43" spans="1:19" s="42" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -12608,16 +12607,16 @@
       <c r="S45" s="43"/>
     </row>
     <row r="46" spans="1:19" s="42" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="93">
-        <v>5</v>
-      </c>
-      <c r="C46" s="93">
-        <v>3</v>
-      </c>
-      <c r="D46" s="93">
+      <c r="B46" s="95">
+        <v>5</v>
+      </c>
+      <c r="C46" s="95">
+        <v>3</v>
+      </c>
+      <c r="D46" s="95">
         <v>1</v>
       </c>
       <c r="E46" s="43"/>
@@ -12637,12 +12636,12 @@
       <c r="S46" s="43"/>
     </row>
     <row r="47" spans="1:19" s="42" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
@@ -12739,12 +12738,12 @@
       <c r="S50" s="43"/>
     </row>
     <row r="51" spans="1:19" s="42" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -12811,12 +12810,12 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="42" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
     </row>
     <row r="56" spans="1:19" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -12853,12 +12852,12 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
     </row>
     <row r="60" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -12892,31 +12891,31 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12928,12 +12927,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -13150,20 +13149,20 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
     </row>
     <row r="29" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
     </row>
     <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -13196,12 +13195,12 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
     </row>
     <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -13238,12 +13237,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
     </row>
     <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -13280,12 +13279,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -13324,26 +13323,26 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="93">
-        <v>5</v>
-      </c>
-      <c r="C45" s="93">
-        <v>3</v>
-      </c>
-      <c r="D45" s="93">
+      <c r="B45" s="95">
+        <v>5</v>
+      </c>
+      <c r="C45" s="95">
+        <v>3</v>
+      </c>
+      <c r="D45" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
     </row>
     <row r="47" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -13380,12 +13379,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="96" t="s">
         <v>416</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
     </row>
     <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
@@ -13422,12 +13421,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
     </row>
     <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -13464,12 +13463,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
     </row>
     <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -13503,24 +13502,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -13536,60 +13535,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -13718,20 +13717,20 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -13764,12 +13763,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -13802,12 +13801,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>698</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -13840,20 +13839,20 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -13886,12 +13885,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
     </row>
     <row r="42" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -13924,12 +13923,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
     </row>
     <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -13962,12 +13961,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
     </row>
     <row r="50" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -14000,12 +13999,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
     </row>
     <row r="54" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -14032,12 +14031,12 @@
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -14064,12 +14063,12 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -14097,17 +14096,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A57:D57"/>
@@ -14116,6 +14104,17 @@
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14123,14 +14122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14142,12 +14141,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -14292,20 +14291,20 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
     </row>
     <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -14338,12 +14337,12 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -14380,12 +14379,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
     </row>
     <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -14422,12 +14421,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
     </row>
     <row r="33" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -14466,26 +14465,26 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="93">
-        <v>5</v>
-      </c>
-      <c r="C36" s="93">
-        <v>3</v>
-      </c>
-      <c r="D36" s="93">
+      <c r="B36" s="95">
+        <v>5</v>
+      </c>
+      <c r="C36" s="95">
+        <v>3</v>
+      </c>
+      <c r="D36" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
     </row>
     <row r="38" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -14522,12 +14521,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>416</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -14564,12 +14563,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
     </row>
     <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
@@ -14606,12 +14605,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
     </row>
     <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -14645,31 +14644,31 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14681,52 +14680,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -14879,20 +14878,20 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
     </row>
     <row r="26" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -14925,12 +14924,12 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -14967,12 +14966,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -15009,12 +15008,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
     </row>
     <row r="39" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -15053,26 +15052,26 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="93">
-        <v>5</v>
-      </c>
-      <c r="C42" s="93">
-        <v>3</v>
-      </c>
-      <c r="D42" s="93">
+      <c r="B42" s="95">
+        <v>5</v>
+      </c>
+      <c r="C42" s="95">
+        <v>3</v>
+      </c>
+      <c r="D42" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -15109,12 +15108,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>416</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -15151,12 +15150,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
     </row>
     <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
@@ -15193,12 +15192,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
     </row>
     <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -15231,12 +15230,12 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
     </row>
     <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -15269,12 +15268,12 @@
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="87"/>
     </row>
     <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
@@ -15312,6 +15311,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A25:D25"/>
@@ -15323,27 +15329,20 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15355,52 +15354,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -15675,20 +15674,20 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
     </row>
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -15721,12 +15720,12 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -15763,12 +15762,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -15805,12 +15804,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -15849,26 +15848,26 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="93">
-        <v>5</v>
-      </c>
-      <c r="C51" s="93">
-        <v>3</v>
-      </c>
-      <c r="D51" s="93">
+      <c r="B51" s="95">
+        <v>5</v>
+      </c>
+      <c r="C51" s="95">
+        <v>3</v>
+      </c>
+      <c r="D51" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
     </row>
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -15905,12 +15904,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
     </row>
     <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -15947,12 +15946,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
     </row>
     <row r="61" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -15985,12 +15984,12 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="79"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87"/>
     </row>
     <row r="65" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
@@ -16023,12 +16022,12 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="87"/>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -16061,12 +16060,12 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
     </row>
     <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
@@ -16099,12 +16098,12 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
     </row>
     <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
@@ -16138,14 +16137,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A68:D68"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A34:D34"/>
@@ -16157,20 +16148,28 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A68:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16182,12 +16181,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1">
         <f>100/16</f>
         <v>6.25</v>
@@ -16197,41 +16196,41 @@
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -16400,20 +16399,20 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
     </row>
     <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -16446,12 +16445,12 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -16488,12 +16487,12 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -16530,12 +16529,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
     </row>
     <row r="41" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -16574,12 +16573,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="50" t="s">
         <v>677</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -16606,26 +16605,26 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="93">
-        <v>5</v>
-      </c>
-      <c r="C48" s="93">
-        <v>3</v>
-      </c>
-      <c r="D48" s="93">
+      <c r="B48" s="95">
+        <v>5</v>
+      </c>
+      <c r="C48" s="95">
+        <v>3</v>
+      </c>
+      <c r="D48" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
     </row>
     <row r="50" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
@@ -16662,12 +16661,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -16704,12 +16703,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
     </row>
     <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
@@ -16742,12 +16741,12 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="79"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
     </row>
     <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -16780,12 +16779,12 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="87"/>
     </row>
     <row r="66" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -16818,12 +16817,12 @@
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
     </row>
     <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -16856,12 +16855,12 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
     </row>
     <row r="74" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
@@ -16894,12 +16893,12 @@
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="92" t="s">
         <v>681</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
     </row>
     <row r="78" spans="1:4" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -16932,12 +16931,12 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="92" t="s">
         <v>688</v>
       </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
     </row>
     <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
@@ -16971,12 +16970,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A40:D40"/>
@@ -16993,20 +16986,26 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17018,52 +17017,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -17224,20 +17223,20 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
     </row>
     <row r="27" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -17270,12 +17269,12 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -17312,12 +17311,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -17354,12 +17353,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
     </row>
     <row r="40" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -17398,26 +17397,26 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="82">
-        <v>5</v>
-      </c>
-      <c r="C43" s="82">
-        <v>3</v>
-      </c>
-      <c r="D43" s="83">
+      <c r="B43" s="83">
+        <v>5</v>
+      </c>
+      <c r="C43" s="83">
+        <v>3</v>
+      </c>
+      <c r="D43" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
     </row>
     <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
@@ -17450,12 +17449,12 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -17492,12 +17491,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
@@ -17534,12 +17533,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="86"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -17572,12 +17571,12 @@
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
     </row>
     <row r="61" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
@@ -17614,12 +17613,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="79"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87"/>
     </row>
     <row r="65" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
@@ -17656,12 +17655,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="87"/>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -17695,11 +17694,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A43:D43"/>
@@ -17708,26 +17708,25 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17739,58 +17738,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -17905,26 +17904,26 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
     </row>
     <row r="22" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="49">
         <v>5</v>
       </c>
       <c r="C23" s="1"/>
@@ -17934,7 +17933,7 @@
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B24" s="49">
         <v>3</v>
       </c>
       <c r="C24" s="1"/>
@@ -17944,25 +17943,25 @@
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B25" s="49">
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="49">
         <v>5</v>
       </c>
       <c r="C27" s="1"/>
@@ -17972,7 +17971,7 @@
       <c r="A28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="49">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -17984,7 +17983,7 @@
       <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="97">
+      <c r="B29" s="49">
         <v>1</v>
       </c>
       <c r="C29" s="1"/>
@@ -17993,18 +17992,18 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="97">
+      <c r="B31" s="49">
         <v>5</v>
       </c>
       <c r="C31" s="1"/>
@@ -18014,7 +18013,7 @@
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="49">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -18026,7 +18025,7 @@
       <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="97">
+      <c r="B33" s="49">
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
@@ -18035,18 +18034,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="97">
+      <c r="B35" s="49">
         <v>5</v>
       </c>
       <c r="C35" s="1"/>
@@ -18056,7 +18055,7 @@
       <c r="A36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="49">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -18068,7 +18067,7 @@
       <c r="A37" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="97">
+      <c r="B37" s="49">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -18079,32 +18078,32 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="82">
-        <v>5</v>
-      </c>
-      <c r="C38" s="82">
-        <v>3</v>
-      </c>
-      <c r="D38" s="83">
+      <c r="B38" s="83">
+        <v>5</v>
+      </c>
+      <c r="C38" s="83">
+        <v>3</v>
+      </c>
+      <c r="D38" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
     </row>
     <row r="40" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B40" s="97">
+      <c r="B40" s="49">
         <v>5</v>
       </c>
       <c r="C40" s="1"/>
@@ -18114,7 +18113,7 @@
       <c r="A41" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="49">
         <v>3</v>
       </c>
       <c r="C41" s="1"/>
@@ -18124,25 +18123,25 @@
       <c r="A42" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="97">
+      <c r="B42" s="49">
         <v>1</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="49">
         <v>5</v>
       </c>
       <c r="C44" s="1"/>
@@ -18152,7 +18151,7 @@
       <c r="A45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="97">
+      <c r="B45" s="49">
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -18164,7 +18163,7 @@
       <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="97">
+      <c r="B46" s="49">
         <v>1</v>
       </c>
       <c r="C46" s="1"/>
@@ -18173,18 +18172,18 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
     </row>
     <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="97">
+      <c r="B48" s="49">
         <v>5</v>
       </c>
       <c r="C48" s="1"/>
@@ -18194,7 +18193,7 @@
       <c r="A49" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="97">
+      <c r="B49" s="49">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -18206,7 +18205,7 @@
       <c r="A50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="97">
+      <c r="B50" s="49">
         <v>1</v>
       </c>
       <c r="C50" s="1"/>
@@ -18215,18 +18214,18 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="81"/>
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="B52" s="97">
+      <c r="B52" s="49">
         <v>5</v>
       </c>
       <c r="C52" s="1"/>
@@ -18236,7 +18235,7 @@
       <c r="A53" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B53" s="97">
+      <c r="B53" s="49">
         <v>3</v>
       </c>
       <c r="C53" s="1"/>
@@ -18246,25 +18245,25 @@
       <c r="A54" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="49">
         <v>1</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="97">
+      <c r="B56" s="49">
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
@@ -18274,7 +18273,7 @@
       <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="97">
+      <c r="B57" s="49">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -18286,7 +18285,7 @@
       <c r="A58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="49">
         <v>1</v>
       </c>
       <c r="C58" s="1"/>
@@ -18295,18 +18294,18 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
     </row>
     <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B60" s="49">
         <v>5</v>
       </c>
       <c r="C60" s="1"/>
@@ -18316,7 +18315,7 @@
       <c r="A61" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B61" s="49">
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -18328,7 +18327,7 @@
       <c r="A62" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="97">
+      <c r="B62" s="49">
         <v>1</v>
       </c>
       <c r="C62" s="1"/>
@@ -18337,18 +18336,18 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="87"/>
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="97">
+      <c r="B64" s="49">
         <v>5</v>
       </c>
       <c r="C64" s="1"/>
@@ -18358,7 +18357,7 @@
       <c r="A65" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="97">
+      <c r="B65" s="49">
         <v>3</v>
       </c>
       <c r="C65" s="1"/>
@@ -18368,7 +18367,7 @@
       <c r="A66" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="97">
+      <c r="B66" s="49">
         <v>1</v>
       </c>
       <c r="C66" s="1"/>
@@ -18376,14 +18375,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A21:D21"/>
@@ -18395,6 +18386,14 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18402,14 +18401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18421,52 +18420,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -18691,20 +18690,20 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -18737,12 +18736,12 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -18779,12 +18778,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -18821,12 +18820,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
     </row>
     <row r="48" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -18865,26 +18864,26 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="82">
-        <v>5</v>
-      </c>
-      <c r="C51" s="82">
-        <v>3</v>
-      </c>
-      <c r="D51" s="83">
+      <c r="B51" s="83">
+        <v>5</v>
+      </c>
+      <c r="C51" s="83">
+        <v>3</v>
+      </c>
+      <c r="D51" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -18917,12 +18916,12 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="86"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
     </row>
     <row r="57" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
@@ -18959,12 +18958,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="86"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -19001,12 +19000,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="86"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
     </row>
     <row r="65" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
@@ -19039,12 +19038,12 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="87"/>
     </row>
     <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -19081,12 +19080,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="79"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="87"/>
     </row>
     <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
@@ -19123,12 +19122,12 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="77" t="s">
+      <c r="A76" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="87"/>
     </row>
     <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
@@ -19162,14 +19161,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A68:D68"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A34:D34"/>
@@ -19181,6 +19172,14 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A68:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19188,14 +19187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19207,52 +19206,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -19493,20 +19492,20 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -19539,12 +19538,12 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -19581,12 +19580,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
     </row>
     <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -19623,12 +19622,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
     </row>
     <row r="50" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -19667,26 +19666,26 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="82">
-        <v>5</v>
-      </c>
-      <c r="C53" s="82">
-        <v>3</v>
-      </c>
-      <c r="D53" s="83">
+      <c r="B53" s="83">
+        <v>5</v>
+      </c>
+      <c r="C53" s="83">
+        <v>3</v>
+      </c>
+      <c r="D53" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
@@ -19719,12 +19718,12 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
@@ -19761,12 +19760,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="81"/>
     </row>
     <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -19803,12 +19802,12 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="86"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="81"/>
     </row>
     <row r="67" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -19841,12 +19840,12 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="87"/>
     </row>
     <row r="71" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -19883,12 +19882,12 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="77" t="s">
+      <c r="A74" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="87"/>
     </row>
     <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
@@ -19925,12 +19924,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="77" t="s">
+      <c r="A78" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="87"/>
     </row>
     <row r="79" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
@@ -19964,13 +19963,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A53:D53"/>
@@ -19983,6 +19975,13 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19990,14 +19989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20009,58 +20008,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -20271,26 +20270,26 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="97">
+      <c r="B35" s="49">
         <v>5</v>
       </c>
       <c r="C35" s="1"/>
@@ -20300,7 +20299,7 @@
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="49">
         <v>3</v>
       </c>
       <c r="C36" s="1"/>
@@ -20310,25 +20309,25 @@
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="97">
+      <c r="B37" s="49">
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
     </row>
     <row r="39" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="49">
         <v>5</v>
       </c>
       <c r="C39" s="1"/>
@@ -20338,7 +20337,7 @@
       <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="97">
+      <c r="B40" s="49">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -20350,7 +20349,7 @@
       <c r="A41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="49">
         <v>1</v>
       </c>
       <c r="C41" s="1"/>
@@ -20359,18 +20358,18 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="97">
+      <c r="B43" s="49">
         <v>5</v>
       </c>
       <c r="C43" s="1"/>
@@ -20380,7 +20379,7 @@
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="49">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -20392,7 +20391,7 @@
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="97">
+      <c r="B45" s="49">
         <v>1</v>
       </c>
       <c r="C45" s="1"/>
@@ -20401,18 +20400,18 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
     </row>
     <row r="47" spans="1:4" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="97">
+      <c r="B47" s="49">
         <v>5</v>
       </c>
       <c r="C47" s="1"/>
@@ -20422,7 +20421,7 @@
       <c r="A48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="97">
+      <c r="B48" s="49">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -20434,7 +20433,7 @@
       <c r="A49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="97">
+      <c r="B49" s="49">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -20445,32 +20444,32 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="82">
-        <v>5</v>
-      </c>
-      <c r="C50" s="82">
-        <v>3</v>
-      </c>
-      <c r="D50" s="83">
+      <c r="B50" s="83">
+        <v>5</v>
+      </c>
+      <c r="C50" s="83">
+        <v>3</v>
+      </c>
+      <c r="D50" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B52" s="97">
+      <c r="B52" s="49">
         <v>5</v>
       </c>
       <c r="C52" s="1"/>
@@ -20480,7 +20479,7 @@
       <c r="A53" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="97">
+      <c r="B53" s="49">
         <v>3</v>
       </c>
       <c r="C53" s="1"/>
@@ -20490,25 +20489,25 @@
       <c r="A54" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="49">
         <v>1</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="86"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81"/>
     </row>
     <row r="56" spans="1:4" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="97">
+      <c r="B56" s="49">
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
@@ -20518,7 +20517,7 @@
       <c r="A57" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="97">
+      <c r="B57" s="49">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -20530,7 +20529,7 @@
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="49">
         <v>1</v>
       </c>
       <c r="C58" s="1"/>
@@ -20539,18 +20538,18 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="86"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
     </row>
     <row r="60" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B60" s="49">
         <v>5</v>
       </c>
       <c r="C60" s="1"/>
@@ -20560,7 +20559,7 @@
       <c r="A61" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B61" s="49">
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -20572,7 +20571,7 @@
       <c r="A62" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="97">
+      <c r="B62" s="49">
         <v>1</v>
       </c>
       <c r="C62" s="1"/>
@@ -20581,18 +20580,18 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="86"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
     </row>
     <row r="64" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="B64" s="97">
+      <c r="B64" s="49">
         <v>5</v>
       </c>
       <c r="C64" s="1"/>
@@ -20602,7 +20601,7 @@
       <c r="A65" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B65" s="97">
+      <c r="B65" s="49">
         <v>3</v>
       </c>
       <c r="C65" s="1"/>
@@ -20612,25 +20611,25 @@
       <c r="A66" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="97">
+      <c r="B66" s="49">
         <v>1</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
     </row>
     <row r="68" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="97">
+      <c r="B68" s="49">
         <v>5</v>
       </c>
       <c r="C68" s="1"/>
@@ -20640,7 +20639,7 @@
       <c r="A69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B69" s="49">
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -20652,7 +20651,7 @@
       <c r="A70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="97">
+      <c r="B70" s="49">
         <v>1</v>
       </c>
       <c r="C70" s="1"/>
@@ -20661,18 +20660,18 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="87"/>
     </row>
     <row r="72" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="97">
+      <c r="B72" s="49">
         <v>5</v>
       </c>
       <c r="C72" s="1"/>
@@ -20682,7 +20681,7 @@
       <c r="A73" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="97">
+      <c r="B73" s="49">
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -20694,7 +20693,7 @@
       <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="97">
+      <c r="B74" s="49">
         <v>1</v>
       </c>
       <c r="C74" s="1"/>
@@ -20703,18 +20702,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
     </row>
     <row r="76" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="97">
+      <c r="B76" s="49">
         <v>5</v>
       </c>
       <c r="C76" s="1"/>
@@ -20724,7 +20723,7 @@
       <c r="A77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="97">
+      <c r="B77" s="49">
         <v>3</v>
       </c>
       <c r="C77" s="1"/>
@@ -20734,7 +20733,7 @@
       <c r="A78" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="97">
+      <c r="B78" s="49">
         <v>1</v>
       </c>
       <c r="C78" s="1"/>
@@ -20743,15 +20742,6 @@
     <row r="79" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
@@ -20762,6 +20752,15 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20769,14 +20768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20788,52 +20787,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -21082,20 +21081,20 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
     </row>
     <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -21128,12 +21127,12 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -21170,12 +21169,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
     </row>
     <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -21212,12 +21211,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="86"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -21256,26 +21255,26 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="82">
-        <v>5</v>
-      </c>
-      <c r="C54" s="82">
-        <v>3</v>
-      </c>
-      <c r="D54" s="83">
+      <c r="B54" s="83">
+        <v>5</v>
+      </c>
+      <c r="C54" s="83">
+        <v>3</v>
+      </c>
+      <c r="D54" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -21308,12 +21307,12 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="86"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
     </row>
     <row r="60" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -21350,12 +21349,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="86"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
     </row>
     <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
@@ -21392,12 +21391,12 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="86"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="81"/>
     </row>
     <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -21430,12 +21429,12 @@
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="87"/>
     </row>
     <row r="72" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -21472,12 +21471,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
     </row>
     <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
@@ -21514,12 +21513,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="87"/>
     </row>
     <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
@@ -21553,12 +21552,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A55:D55"/>
@@ -21572,6 +21565,12 @@
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21579,7 +21578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -21595,52 +21594,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -21713,20 +21712,20 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -21759,12 +21758,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -21797,12 +21796,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -21835,12 +21834,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -21875,20 +21874,20 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -21921,12 +21920,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -21959,12 +21958,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
     </row>
     <row r="42" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -21997,12 +21996,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
     </row>
     <row r="46" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
@@ -22038,12 +22037,6 @@
     <row r="50" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -22054,17 +22047,23 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22076,52 +22075,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>631</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -22244,26 +22243,26 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
     </row>
     <row r="23" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B24" s="49">
         <v>5</v>
       </c>
       <c r="C24" s="1"/>
@@ -22273,7 +22272,7 @@
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B25" s="49">
         <v>3</v>
       </c>
       <c r="C25" s="1"/>
@@ -22283,25 +22282,25 @@
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="97">
+      <c r="B26" s="49">
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="49">
         <v>5</v>
       </c>
       <c r="C28" s="1"/>
@@ -22311,7 +22310,7 @@
       <c r="A29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="97">
+      <c r="B29" s="49">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -22323,7 +22322,7 @@
       <c r="A30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="97">
+      <c r="B30" s="49">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
@@ -22332,18 +22331,18 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="49">
         <v>5</v>
       </c>
       <c r="C32" s="1"/>
@@ -22353,7 +22352,7 @@
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="97">
+      <c r="B33" s="49">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -22365,7 +22364,7 @@
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="97">
+      <c r="B34" s="49">
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
@@ -22374,18 +22373,18 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="49">
         <v>5</v>
       </c>
       <c r="C36" s="1"/>
@@ -22395,7 +22394,7 @@
       <c r="A37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="97">
+      <c r="B37" s="49">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -22407,7 +22406,7 @@
       <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="97">
+      <c r="B38" s="49">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -22418,32 +22417,32 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="82">
-        <v>5</v>
-      </c>
-      <c r="C39" s="82">
-        <v>3</v>
-      </c>
-      <c r="D39" s="83">
+      <c r="B39" s="83">
+        <v>5</v>
+      </c>
+      <c r="C39" s="83">
+        <v>3</v>
+      </c>
+      <c r="D39" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="49">
         <v>5</v>
       </c>
       <c r="C41" s="1"/>
@@ -22453,7 +22452,7 @@
       <c r="A42" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="97">
+      <c r="B42" s="49">
         <v>3</v>
       </c>
       <c r="C42" s="1"/>
@@ -22463,25 +22462,25 @@
       <c r="A43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="97">
+      <c r="B43" s="49">
         <v>1</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="45" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="97">
+      <c r="B45" s="49">
         <v>5</v>
       </c>
       <c r="C45" s="1"/>
@@ -22491,7 +22490,7 @@
       <c r="A46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="97">
+      <c r="B46" s="49">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -22503,7 +22502,7 @@
       <c r="A47" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="97">
+      <c r="B47" s="49">
         <v>1</v>
       </c>
       <c r="C47" s="1"/>
@@ -22512,18 +22511,18 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="97">
+      <c r="B49" s="49">
         <v>5</v>
       </c>
       <c r="C49" s="1"/>
@@ -22533,7 +22532,7 @@
       <c r="A50" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="97">
+      <c r="B50" s="49">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -22545,7 +22544,7 @@
       <c r="A51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="97">
+      <c r="B51" s="49">
         <v>1</v>
       </c>
       <c r="C51" s="1"/>
@@ -22554,18 +22553,18 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="B53" s="97">
+      <c r="B53" s="49">
         <v>5</v>
       </c>
       <c r="C53" s="1"/>
@@ -22575,7 +22574,7 @@
       <c r="A54" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="49">
         <v>3</v>
       </c>
       <c r="C54" s="1"/>
@@ -22585,25 +22584,25 @@
       <c r="A55" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B55" s="97">
+      <c r="B55" s="49">
         <v>1</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
     </row>
     <row r="57" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="97">
+      <c r="B57" s="49">
         <v>5</v>
       </c>
       <c r="C57" s="1"/>
@@ -22613,7 +22612,7 @@
       <c r="A58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="49">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -22625,7 +22624,7 @@
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="97">
+      <c r="B59" s="49">
         <v>1</v>
       </c>
       <c r="C59" s="1"/>
@@ -22634,18 +22633,18 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B61" s="49">
         <v>5</v>
       </c>
       <c r="C61" s="1"/>
@@ -22655,7 +22654,7 @@
       <c r="A62" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="97">
+      <c r="B62" s="49">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -22667,7 +22666,7 @@
       <c r="A63" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="97">
+      <c r="B63" s="49">
         <v>1</v>
       </c>
       <c r="C63" s="1"/>
@@ -22676,18 +22675,18 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="79"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87"/>
     </row>
     <row r="65" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="97">
+      <c r="B65" s="49">
         <v>5</v>
       </c>
       <c r="C65" s="1"/>
@@ -22697,7 +22696,7 @@
       <c r="A66" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="97">
+      <c r="B66" s="49">
         <v>3</v>
       </c>
       <c r="C66" s="1"/>
@@ -22707,7 +22706,7 @@
       <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="97">
+      <c r="B67" s="49">
         <v>1</v>
       </c>
       <c r="C67" s="1"/>
@@ -22715,6 +22714,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A22:D22"/>
@@ -22726,14 +22733,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22741,7 +22740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22826,7 +22825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -22842,52 +22841,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -23008,20 +23007,20 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -23054,12 +23053,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
     </row>
     <row r="27" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -23092,12 +23091,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -23130,12 +23129,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -23170,20 +23169,20 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
     </row>
     <row r="40" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -23216,12 +23215,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
     </row>
     <row r="44" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -23254,12 +23253,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
     </row>
     <row r="48" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -23292,12 +23291,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
     </row>
     <row r="52" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -23324,12 +23323,12 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -23357,12 +23356,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A55:D55"/>
@@ -23374,13 +23367,19 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -23393,52 +23392,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -23551,20 +23550,20 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -23597,12 +23596,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -23635,12 +23634,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -23673,12 +23672,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -23713,20 +23712,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
     </row>
     <row r="39" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -23759,12 +23758,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
     </row>
     <row r="43" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -23797,12 +23796,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
@@ -23835,12 +23834,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
     </row>
     <row r="51" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
@@ -23873,12 +23872,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
     </row>
     <row r="55" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
@@ -23905,12 +23904,12 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -23946,12 +23945,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A58:D58"/>
@@ -23964,6 +23957,12 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23971,7 +23970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -23990,52 +23989,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24124,20 +24123,20 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -24170,12 +24169,12 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="23" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -24212,12 +24211,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
     </row>
     <row r="27" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -24254,12 +24253,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -24298,26 +24297,26 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="82">
-        <v>5</v>
-      </c>
-      <c r="C34" s="82">
-        <v>3</v>
-      </c>
-      <c r="D34" s="83">
+      <c r="B34" s="83">
+        <v>5</v>
+      </c>
+      <c r="C34" s="83">
+        <v>3</v>
+      </c>
+      <c r="D34" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -24354,12 +24353,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
     </row>
     <row r="40" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -24396,12 +24395,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -24438,12 +24437,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
     </row>
     <row r="48" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -24476,12 +24475,12 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -24518,12 +24517,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -24561,6 +24560,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:D18"/>
@@ -24572,20 +24578,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -24604,52 +24603,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24762,20 +24761,20 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -24808,12 +24807,12 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -24850,12 +24849,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
     </row>
     <row r="30" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -24892,12 +24891,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
     </row>
     <row r="34" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -24936,26 +24935,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="82">
-        <v>5</v>
-      </c>
-      <c r="C37" s="82">
-        <v>3</v>
-      </c>
-      <c r="D37" s="83">
+      <c r="B37" s="83">
+        <v>5</v>
+      </c>
+      <c r="C37" s="83">
+        <v>3</v>
+      </c>
+      <c r="D37" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
     </row>
     <row r="39" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -24992,12 +24991,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
@@ -25034,12 +25033,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
     </row>
     <row r="47" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -25076,12 +25075,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="86"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
@@ -25114,12 +25113,12 @@
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
     </row>
     <row r="55" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
@@ -25156,12 +25155,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
     </row>
     <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -25199,6 +25198,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A20:D20"/>
@@ -25210,20 +25216,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -25242,12 +25241,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -25384,20 +25383,20 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -25430,12 +25429,12 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -25472,12 +25471,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -25514,12 +25513,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -25558,26 +25557,26 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="82">
-        <v>5</v>
-      </c>
-      <c r="C35" s="82">
-        <v>3</v>
-      </c>
-      <c r="D35" s="83">
+      <c r="B35" s="83">
+        <v>5</v>
+      </c>
+      <c r="C35" s="83">
+        <v>3</v>
+      </c>
+      <c r="D35" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -25614,12 +25613,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
     </row>
     <row r="41" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -25656,12 +25655,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -25698,12 +25697,12 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -25736,12 +25735,12 @@
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
     </row>
     <row r="53" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -25797,7 +25796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -25816,12 +25815,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -26102,20 +26101,20 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -26148,12 +26147,12 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -26190,12 +26189,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
     </row>
     <row r="46" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -26232,12 +26231,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
     </row>
     <row r="50" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
@@ -26276,26 +26275,26 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="82">
-        <v>5</v>
-      </c>
-      <c r="C53" s="82">
-        <v>3</v>
-      </c>
-      <c r="D53" s="83">
+      <c r="B53" s="83">
+        <v>5</v>
+      </c>
+      <c r="C53" s="83">
+        <v>3</v>
+      </c>
+      <c r="D53" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="86"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -26332,12 +26331,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
@@ -26374,12 +26373,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="81"/>
     </row>
     <row r="63" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -26416,12 +26415,12 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="86"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="81"/>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -26454,12 +26453,12 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="87"/>
     </row>
     <row r="71" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
@@ -26496,12 +26495,12 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="80" t="s">
+      <c r="A74" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="87"/>
     </row>
     <row r="75" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
@@ -26538,12 +26537,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="77" t="s">
+      <c r="A78" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="87"/>
     </row>
     <row r="79" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
@@ -26576,12 +26575,12 @@
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="79"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="87"/>
     </row>
     <row r="83" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
@@ -26615,6 +26614,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A82:D82"/>
@@ -26624,12 +26629,6 @@
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
